--- a/biology/Botanique/Abutilon_sandwicense/Abutilon_sandwicense.xlsx
+++ b/biology/Botanique/Abutilon_sandwicense/Abutilon_sandwicense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abutilon sandwicense est une espèce du genre Abutilon, de la famille des Malvaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abutilon sandwicense est un arbuste atteignant une hauteur de 1,5 à 3 mètres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abutilon sandwicense est un arbuste atteignant une hauteur de 1,5 à 3 mètres.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abutilon sandwicense est endémique de l'île d'Oahu. Elle habite dans les forêts décidues sèches tropicales et subtropicales sur les pentes du Waianae Range à des altitudes de 400 à 600 m[1].
-Elle est associée à Diospyros sandwicensis, Diospyros hillebrandii, Pipturus albidus, Elaeocarpus bifidus, Sapindus oahuensis, Nestegis sandwicensis et Psydrax odorata[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abutilon sandwicense est endémique de l'île d'Oahu. Elle habite dans les forêts décidues sèches tropicales et subtropicales sur les pentes du Waianae Range à des altitudes de 400 à 600 m.
+Elle est associée à Diospyros sandwicensis, Diospyros hillebrandii, Pipturus albidus, Elaeocarpus bifidus, Sapindus oahuensis, Nestegis sandwicensis et Psydrax odorata.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Abutilon sandwicense est menacée par la perturbation écologique.
 </t>
